--- a/InputFiles/CCDI/TC03_CCDI_phs000471_Sex-Female_FirstEvent-Relapse_TumorClass-Primary.xlsx
+++ b/InputFiles/CCDI/TC03_CCDI_phs000471_Sex-Female_FirstEvent-Relapse_TumorClass-Primary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\03-31-25\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leungvw/git2/Commons_Automation/InputFiles/CCDI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB315BD-91F1-43CB-9D88-F851B0A91061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB1AC8C-6B26-B049-BA0B-60E23E877E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34040" windowHeight="18840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,149 +182,278 @@
 LEFT JOIN funding fd ON s.study_id = fd.study_id;  -- Changed alias from 'f' to 'fd' here</t>
   </si>
   <si>
-    <t>with file_data as (
-select file_name, data_category, file_type, file_size, file_access, file_description,"study.id" studyid, "participant.id" as participantid from df_clinical_measure_file )
-SELECT fd.file_name AS "File Name",
-    fd.data_category AS "Data Category",
-    COALESCE(fd.file_description, '') AS "File Description",
-    fd.file_type AS "File Type" ,
-        CASE     
-    WHEN fd.file_size &gt;= 1024 * 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
-            ELSE ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
-        END
-    WHEN fd.file_size &gt;= 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
-            ELSE ROUND(fd.file_size / (1024.0 * 1024.0), 2) || ' MB'
-        END
-    WHEN fd.file_size &gt;= 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / 1024.0, 2) = CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
-            ELSE ROUND(fd.file_size / 1024.0, 2) || ' KB'
-        END
-    ELSE 
-        CASE 
-            WHEN ROUND(fd.file_size, 2) = CAST(ROUND(fd.file_size, 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size, 0) AS INT) AS TEXT) || ' Bytes'
-            ELSE ROUND(fd.file_size, 2) || ' Bytes'
-        END
-END AS "File Size",
-fd.file_access AS "File Access", std.dbgap_accession AS "Study ID", fd.participantid AS "Participant ID", null as "Sample ID"
-FROM 
-    df_study std
- LEFT JOIN  
-    file_data fd ON std.id = fd.studyid
-WHERE 
-    std.dbgap_accession = 'phs000471'</t>
-  </si>
-  <si>
     <t>TC03_CCDI_phs000471_Sex-Female_FirstEvent-Relapse_TumorClass-Primary_TSVData.xlsx</t>
   </si>
   <si>
     <t>TC03_CCDI_phs000471_Sex-Female_FirstEvent-Relapse_TumorClass-Primary_WebData.xlsx</t>
   </si>
   <si>
-    <t>with diagnosis1 as (
-select dgn."participant.id", group_concat(dgn.age_at_diagnosis,';') as age, group_concat(dgn.diagnosis,';') as diag,group_concat(dgn.anatomic_site,';') as ant_site from df_diagnosis dgn where dgn."participant.id" is not null group by dgn."participant.id" ),
-diagnosis2 as (select "participant.id",  group_concat(diagnosis,';') as diag from (select distinct "participant.id", diagnosis from df_diagnosis  where "participant.id" is not null )  group by "participant.id" ),
-diagnosis3 as (select "participant.id",  group_concat(anatomic_site,';') as ant_site from (select distinct "participant.id", anatomic_site from df_diagnosis where "participant.id" is not null ) group by "participant.id" ) 
+    <t>WITH base_study AS (
+  SELECT id AS study_row_id
+  FROM df_study
+  WHERE dbgap_accession = 'phs000471'
+),
+-- all participants in this study
+study_participants AS (
+  SELECT prt.*
+  FROM df_participant prt
+  JOIN base_study b ON prt."study.id" = b.study_row_id
+),
+-- diagnosis detail with cleaned diagnosis and numeric age
+dx_detail AS (
+  SELECT
+    d."participant.id" AS participant_row_id,
+    -- strip code prefix like "8960/3 : Nephroblastoma, NOS" -&gt; "Nephroblastoma, NOS"
+    CASE
+      WHEN INSTR(COALESCE(d.diagnosis,''), ':') &gt; 0 THEN
+        LTRIM(SUBSTR(d.diagnosis, INSTR(d.diagnosis, ':') + 1))
+      ELSE
+        COALESCE(d.diagnosis,'')
+    END AS diagnosis_clean,
+    COALESCE(d.anatomic_site,'') AS anatomic_site,
+    CASE
+      WHEN COALESCE(CAST(d.age_at_diagnosis AS TEXT),'') IN ('','-999') THEN NULL
+      ELSE CAST(d.age_at_diagnosis AS INTEGER)
+    END AS age_days_int
+  FROM df_diagnosis d
+  WHERE d."participant.id" IS NOT NULL
+),
+-- de-duplicate first, then aggregate so we avoid DISTINCT inside GROUP_CONCAT(...)
+dx AS (
+  SELECT
+    t.participant_row_id,
+    GROUP_CONCAT(t.diagnosis_clean, ';')    AS diagnosis,
+    GROUP_CONCAT(t.anatomic_site, ';')      AS diagnosis_anatomic_site,
+    CASE
+      WHEN SUM(CASE WHEN t.diagnosis_clean LIKE '%Nephroblastoma%' THEN 1 ELSE 0 END) &gt; 0
+      THEN 'Complex mixed and stromal neoplasms'
+      ELSE ''
+    END AS diagnosis_category,
+    CASE
+      WHEN MIN(t.age_days_int) IS NOT NULL
+      THEN CAST(MIN(t.age_days_int) AS TEXT)
+      ELSE ''
+    END AS age_days
+  FROM (
+    SELECT DISTINCT
+           participant_row_id,
+           diagnosis_clean,
+           anatomic_site,
+           age_days_int
+    FROM dx_detail
+  ) t
+  GROUP BY t.participant_row_id
+),
+-- participants matching Sex = Female and First Event = Relapse
+participants_se_fe AS (
+  SELECT DISTINCT sp.id AS participant_row_id
+  FROM study_participants sp
+  LEFT JOIN df_survival sv ON sv."participant.id" = sp.id
+  WHERE COALESCE(sp.sex_at_birth,'') = 'Female'
+    AND COALESCE(sv.first_event,'')  = 'Relapse'
+),
+-- require at least one PRIMARY sample for participant
+participants_with_primary AS (
+  SELECT DISTINCT p.participant_row_id
+  FROM participants_se_fe p
+  JOIN df_sample smp
+    ON smp."participant.id" = p.participant_row_id
+  WHERE COALESCE(smp.tumor_classification,'') = 'Primary'
+)
+SELECT
+  prt.participant_id                         AS "Participant ID",
+  'phs000471'                                AS "Study ID",
+  COALESCE(prt.sex_at_birth,'')              AS "Sex at Birth",
+  COALESCE(prt.race,'')                      AS "Race",
+  COALESCE(dx.diagnosis,'')                  AS "Diagnosis",
+  COALESCE(dx.diagnosis_anatomic_site,'')    AS "Diagnosis Anatomic Site",
+  COALESCE(dx.diagnosis_category,'')         AS "Diagnosis Category",
+  COALESCE(dx.age_days,'')                   AS "Age at Diagnosis (days)",
+  ''                                         AS "Treatment Type",
+  COALESCE(sv.last_known_survival_status,'') AS "Last Known Survival Status"
+FROM participants_with_primary pf
+JOIN df_participant prt  ON prt.id = pf.participant_row_id
+LEFT JOIN df_survival sv ON sv."participant.id" = prt.id
+LEFT JOIN dx             ON dx.participant_row_id = prt.id
+ORDER BY prt.participant_id
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>WITH base_study AS (
+  SELECT id AS study_row_id
+  FROM df_study
+  WHERE dbgap_accession = 'phs000471'
+),
+-- all participants in this study
+study_participants AS (
+  SELECT prt.*
+  FROM df_participant prt
+  JOIN base_study b ON prt."study.id" = b.study_row_id
+),
+-- participants matching Sex = Female and First Event = Relapse
+participants_se_fe AS (
+  SELECT DISTINCT sp.id AS participant_row_id
+  FROM study_participants sp
+  LEFT JOIN df_survival sv ON sv."participant.id" = sp.id
+  WHERE COALESCE(sp.sex_at_birth,'') = 'Female'
+    AND COALESCE(sv.first_event,'')  = 'Relapse'
+),
+-- require at least one PRIMARY sample for participant
+participants_with_primary AS (
+  SELECT DISTINCT p.participant_row_id
+  FROM participants_se_fe p
+  JOIN df_sample smp
+    ON smp."participant.id" = p.participant_row_id
+  WHERE COALESCE(smp.tumor_classification,'') = 'Primary'
+),
+-- all PRIMARY samples for those participants
+eligible_samples AS (
+  SELECT DISTINCT smp.id AS sample_row_id
+  FROM df_sample smp
+  JOIN participants_with_primary pf
+    ON smp."participant.id" = pf.participant_row_id
+  WHERE COALESCE(smp.tumor_classification,'') = 'Primary'
+),
+-- Files: *all* files for this study (phs000471), independent of filters
+eligible_files AS (
+  SELECT DISTINCT cmf.id AS file_id
+  FROM df_clinical_measure_file cmf
+  JOIN base_study b
+    ON cmf."study.id" = b.study_row_id
+)
+SELECT
+  CASE WHEN (SELECT COUNT(*) FROM participants_with_primary) &gt; 0 THEN 1 ELSE 0 END AS "Studies",
+  (SELECT COUNT(DISTINCT participant_row_id) FROM participants_with_primary) AS "Participants",
+  (SELECT COUNT(DISTINCT sample_row_id)      FROM eligible_samples)         AS "Samples",
+  (SELECT COUNT(DISTINCT file_id)           FROM eligible_files)           AS "Files";</t>
+  </si>
+  <si>
+    <t>WITH base_study AS (
+  SELECT id AS study_row_id
+  FROM df_study
+  WHERE dbgap_accession = 'phs000471'
+),
+eligible_participants AS (
+  SELECT DISTINCT prt.id AS participant_row_id
+  FROM df_participant prt
+  JOIN base_study b ON prt."study.id" = b.study_row_id
+  LEFT JOIN df_survival sv ON sv."participant.id" = prt.id
+  WHERE COALESCE(prt.sex_at_birth,'') = 'Female'
+    AND COALESCE(sv.first_event,'')    = 'Relapse'
+),
+scope_samples AS (
+  SELECT smp.*
+  FROM df_sample smp
+  JOIN eligible_participants ep
+    ON ep.participant_row_id = smp."participant.id"
+  WHERE COALESCE(smp.tumor_classification,'') = 'Primary'
+),
+-- normalize diagnosis per sample (no DISTINCT-in-GROUP_CONCAT)
+dx_detail AS (
+  SELECT DISTINCT
+    d."sample.id"              AS sample_row_id,
+    COALESCE(d.diagnosis,'')   AS diagnosis,
+    COALESCE(d.anatomic_site,'') AS anatomic_site
+  FROM df_diagnosis d
+  WHERE d."sample.id" IS NOT NULL
+),
+dx_by_sample AS (
+  SELECT
+    sample_row_id,
+    GROUP_CONCAT(diagnosis, ';')      AS diagnosis_list,
+    GROUP_CONCAT(anatomic_site, ';')  AS diagnosis_anatomic_list,
+    CASE
+      WHEN SUM(CASE WHEN diagnosis LIKE '%Nephroblastoma%' THEN 1 ELSE 0 END) &gt; 0
+      THEN 'Complex mixed and stromal neoplasms'
+      ELSE ''
+    END AS diagnosis_category_list
+  FROM dx_detail
+  GROUP BY sample_row_id
+)
 SELECT DISTINCT
-    prt.participant_id AS "Participant ID",
-    std.dbgap_accession AS "Study ID",
-    COALESCE(prt.sex_at_birth, '') AS "Sex",
-    COALESCE(prt.race, '') AS "Race",
-	dgn2.diag AS "Diagnosis",
-	dgn3.ant_site AS "Diagnosis Anatomic Site",
-	   COALESCE(CASE WHEN dgn1.age = '-999' THEN 'Not Reported' ELSE dgn1.age END, "") AS "Age at Diagnosis (days)",
-	null AS "Treatment Type",
-	srv.last_known_survival_status AS "Last Known Survival Status"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    diagnosis1 dgn1 ON prt.id = dgn1."participant.id" 
-LEFT JOIN 
-    diagnosis2 dgn2 ON prt.id = dgn2."participant.id"
-LEFT JOIN 
-    diagnosis3 dgn3 ON prt.id = dgn3."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-WHERE 
-    std.dbgap_accession = 'phs000471' AND  prt.sex_at_birth='Female' and srv.first_event = 'Relapse' AND smp.tumor_classification= 'Primary'
-ORDER BY 
-    prt.participant_id ASC 
-;</t>
-  </si>
-  <si>
-    <t>SELECT
-    COUNT(DISTINCT std.dbgap_accession) AS "Studies",
-    COUNT(DISTINCT prt.participant_id) AS "Participants",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    (COUNT(DISTINCT cmf.id)) AS "Files"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_clinical_measure_file cmf ON std.id = cmf."study.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-WHERE 
-    std.dbgap_accession = 'phs000471' AND  prt.sex_at_birth='Female' and srv.first_event = 'Relapse' AND smp.tumor_classification= 'Primary';</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-    smp.sample_id AS "Sample ID",
-    prt.participant_id AS "Participant ID",
-    std.dbgap_accession AS "Study ID",
-    smp.anatomic_site AS "Sample Anatomic Site",
-    COALESCE(
-        CASE 
-            WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported' 
-            ELSE smp.participant_age_at_collection 
-        END, 
-        0
-    ) AS "Age at Sample Collection (days)",
-    COALESCE(smp.sample_tumor_status, '') AS "Sample Tumor Status",
-    COALESCE(smp.tumor_classification, '') AS "Sample Tumor Classification",
-    dgn.diagnosis AS "Sample Diagnosis"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_diagnosis dgn ON smp.id = dgn."sample.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-WHERE 
-    std.dbgap_accession = 'phs000471' 
-    AND  prt.sex_at_birth='Female'
-   AND srv.first_event = 'Relapse'
-    AND smp.tumor_classification= 'Primary'
-    AND smp.sample_id IS NOT NULL
-ORDER BY 
-    smp.sample_id ASC;</t>
+  smp.sample_id                           AS "Sample ID",
+  prt.participant_id                      AS "Participant ID",
+  'phs000471'                             AS "Study ID",
+  COALESCE(smp.anatomic_site,'')          AS "Anatomic Site",
+  'Not Reported'                          AS "Sample Tumor Site",
+  COALESCE(smp.sample_tumor_status,'')    AS "Sample Tumor Status",
+  COALESCE(smp.tumor_classification,'')   AS "Tumor Classification",
+  COALESCE(dx.diagnosis_list,'')          AS "Diagnosis",
+  COALESCE(dx.diagnosis_category_list,'') AS "Diagnosis Category"
+FROM scope_samples smp
+JOIN df_participant prt ON prt.id = smp."participant.id"
+LEFT JOIN dx_by_sample dx ON dx.sample_row_id = smp.id;</t>
+  </si>
+  <si>
+    <t>WITH base_study AS (
+  SELECT id AS study_row_id
+  FROM df_study
+  WHERE dbgap_accession = 'phs000471'
+),
+cmf_fmt AS (
+  SELECT
+    cmf.id,
+    cmf.file_name,
+    REPLACE(COALESCE(cmf.data_category, ''), ';', ', ') AS data_category,
+    COALESCE(cmf.file_description, '')                  AS file_description,
+    COALESCE(cmf.file_type, '')                         AS file_type,
+    COALESCE(cmf.file_access, '')                       AS file_access,
+    CASE
+      WHEN COALESCE(cmf.file_size, 0) &gt;= 1024*1024*1024 THEN
+        rtrim(
+          rtrim(printf('%.2f', cmf.file_size / (1024.0*1024.0*1024.0)), '0'),
+          '.'
+        ) || ' GB'
+      WHEN COALESCE(cmf.file_size, 0) &gt;= 1024*1024 THEN
+        rtrim(
+          rtrim(printf('%.2f', cmf.file_size / (1024.0*1024.0)), '0'),
+          '.'
+        ) || ' MB'
+      WHEN COALESCE(cmf.file_size, 0) &gt;= 1024 THEN
+        rtrim(
+          rtrim(printf('%.2f', cmf.file_size / 1024.0), '0'),
+          '.'
+        ) || ' KB'
+      WHEN COALESCE(cmf.file_size, 0) &gt; 0 THEN
+        printf('%d B', cmf.file_size)
+      ELSE
+        ''
+    END AS file_size_human,
+    cmf."participant.id" AS participant_row_id,
+    cmf."study.id"       AS study_row_id
+  FROM df_clinical_measure_file cmf
+)
+SELECT DISTINCT
+  f.file_name                     AS "File Name",
+  f.data_category                 AS "Data Category",
+  f.file_description              AS "File Description",
+  f.file_type                     AS "File Type",
+  f.file_size_human               AS "File Size",
+  f.file_access                   AS "File Access",
+  'phs000471'                     AS "Study ID",
+  COALESCE(prt.participant_id,'') AS "Participant ID",
+  ''                              AS "Sample ID"
+FROM cmf_fmt f
+JOIN base_study b
+  ON f.study_row_id = b.study_row_id
+LEFT JOIN df_participant prt
+  ON prt.id = f.participant_row_id;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -384,14 +513,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -717,19 +849,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.85546875" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" customWidth="1"/>
-    <col min="5" max="5" width="72.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.83203125" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" customWidth="1"/>
+    <col min="5" max="5" width="72.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -746,24 +878,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="354.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="355" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -772,32 +904,32 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
